--- a/phase2/2_基本数据统计情况/3.履历情况统计.xlsx
+++ b/phase2/2_基本数据统计情况/3.履历情况统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>官职类别</t>
   </si>
@@ -31,10 +31,16 @@
     <t>无履历比例</t>
   </si>
   <si>
-    <t>履历不正确</t>
-  </si>
-  <si>
-    <t>履历不正确比例</t>
+    <t>履历正确</t>
+  </si>
+  <si>
+    <t>履历正确比例</t>
+  </si>
+  <si>
+    <t>履历待定</t>
+  </si>
+  <si>
+    <t>履历待定比例</t>
   </si>
   <si>
     <t>侍郎</t>
@@ -410,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,10 +446,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>434</v>
@@ -458,15 +470,21 @@
         <v>0.02626262626262626</v>
       </c>
       <c r="F2" t="n">
-        <v>239</v>
+        <v>413</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5506912442396313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04838709677419355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>458</v>
@@ -481,15 +499,21 @@
         <v>0.1404040404040404</v>
       </c>
       <c r="F3" t="n">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.759825327510917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.7445414847161572</v>
+      </c>
+      <c r="H3" t="n">
+        <v>117</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2554585152838428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
         <v>72</v>
@@ -504,15 +528,21 @@
         <v>0.08080808080808081</v>
       </c>
       <c r="F4" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6527777777777778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -527,15 +557,21 @@
         <v>0.01767676767676768</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -555,10 +591,16 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>83</v>
@@ -573,15 +615,21 @@
         <v>0.008585858585858586</v>
       </c>
       <c r="F7" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5903614457831325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.7590361445783133</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2409638554216867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -596,15 +644,21 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>68</v>
@@ -619,15 +673,21 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>280</v>
@@ -642,10 +702,16 @@
         <v>0.01666666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5321428571428571</v>
+        <v>0.8535714285714285</v>
+      </c>
+      <c r="H10" t="n">
+        <v>41</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1464285714285714</v>
       </c>
     </row>
   </sheetData>
